--- a/2_Project/1_Web_Development_Project_Details.xlsx
+++ b/2_Project/1_Web_Development_Project_Details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="388">
   <si>
     <t>College</t>
   </si>
@@ -547,15 +547,6 @@
     <t>E0422017</t>
   </si>
   <si>
-    <t xml:space="preserve">E0422046 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0422054 </t>
-  </si>
-  <si>
-    <t>Nil</t>
-  </si>
-  <si>
     <t>E0222057</t>
   </si>
   <si>
@@ -1021,9 +1012,6 @@
     <t>Project 4</t>
   </si>
   <si>
-    <t>Project 5</t>
-  </si>
-  <si>
     <t>Project 6</t>
   </si>
   <si>
@@ -1181,9 +1169,6 @@
   </si>
   <si>
     <t>Member 3 Unique ID2</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>SHREYA S</t>
@@ -1205,7 +1190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1243,6 +1228,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1337,7 +1326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1364,6 +1353,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1550,11 +1540,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:H80" dataDxfId="9">
-  <autoFilter ref="A1:H80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:H77" dataDxfId="9">
+  <autoFilter ref="A1:H77">
     <filterColumn colId="2">
       <filters>
-        <filter val="Cyber Security"/>
+        <filter val="AIDA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1790,14 +1780,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.88671875" customWidth="1"/>
@@ -1806,9 +1796,9 @@
     <col min="8" max="13" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.2">
       <c r="A1" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1826,13 +1816,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1853,10 +1843,10 @@
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1877,10 +1867,10 @@
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1901,10 +1891,10 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1918,17 +1908,17 @@
         <v>16</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1949,10 +1939,10 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1971,12 +1961,14 @@
       <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.4">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1997,10 +1989,10 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.4">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2021,10 +2013,10 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.4">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2045,10 +2037,10 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.4">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2069,10 +2061,10 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.4">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2093,10 +2085,10 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.4">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2117,10 +2109,10 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2141,10 +2133,10 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" hidden="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2165,10 +2157,10 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" hidden="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2189,10 +2181,10 @@
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" hidden="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2209,14 +2201,14 @@
         <v>54</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" hidden="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2237,10 +2229,10 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" hidden="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2261,10 +2253,10 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.4" hidden="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -2285,12 +2277,12 @@
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" hidden="1">
       <c r="A21" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>5</v>
@@ -2299,22 +2291,22 @@
         <v>46</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" hidden="1">
       <c r="A22" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>5</v>
@@ -2323,22 +2315,20 @@
         <v>46</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" hidden="1">
       <c r="A23" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>5</v>
@@ -2347,22 +2337,22 @@
         <v>46</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" hidden="1">
       <c r="A24" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>5</v>
@@ -2371,22 +2361,22 @@
         <v>46</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" hidden="1">
       <c r="A25" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>5</v>
@@ -2395,22 +2385,22 @@
         <v>46</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.4" hidden="1">
       <c r="A26" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>5</v>
@@ -2419,46 +2409,46 @@
         <v>46</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.4" hidden="1">
       <c r="A27" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" hidden="1">
       <c r="A28" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>5</v>
@@ -2467,22 +2457,22 @@
         <v>83</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" hidden="1">
       <c r="A29" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>5</v>
@@ -2491,22 +2481,22 @@
         <v>83</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" hidden="1">
       <c r="A30" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>5</v>
@@ -2515,22 +2505,22 @@
         <v>83</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.4" hidden="1">
       <c r="A31" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>5</v>
@@ -2539,22 +2529,22 @@
         <v>83</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" hidden="1">
       <c r="A32" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>5</v>
@@ -2563,22 +2553,20 @@
         <v>83</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" hidden="1">
       <c r="A33" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>5</v>
@@ -2587,44 +2575,46 @@
         <v>83</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" hidden="1">
       <c r="A34" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" hidden="1">
       <c r="A35" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>5</v>
@@ -2633,22 +2623,22 @@
         <v>104</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.4" hidden="1">
       <c r="A36" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>5</v>
@@ -2657,22 +2647,20 @@
         <v>104</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>110</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" hidden="1">
       <c r="A37" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>5</v>
@@ -2681,22 +2669,24 @@
         <v>104</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>300</v>
+      </c>
       <c r="H37" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" hidden="1">
       <c r="A38" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>5</v>
@@ -2705,22 +2695,22 @@
         <v>104</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" hidden="1">
       <c r="A39" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>5</v>
@@ -2729,22 +2719,22 @@
         <v>104</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.4" hidden="1">
       <c r="A40" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>5</v>
@@ -2753,22 +2743,22 @@
         <v>104</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.4" hidden="1">
       <c r="A41" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>5</v>
@@ -2777,22 +2767,22 @@
         <v>104</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" hidden="1">
       <c r="A42" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>5</v>
@@ -2801,22 +2791,22 @@
         <v>104</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.4" hidden="1">
       <c r="A43" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>5</v>
@@ -2825,22 +2815,22 @@
         <v>104</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.4" hidden="1">
       <c r="A44" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>5</v>
@@ -2849,46 +2839,46 @@
         <v>104</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G44" s="9"/>
-      <c r="H44" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.4" hidden="1">
       <c r="A45" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.4" hidden="1">
       <c r="A46" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>5</v>
@@ -2897,22 +2887,22 @@
         <v>83</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.4" hidden="1">
       <c r="A47" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>5</v>
@@ -2921,70 +2911,70 @@
         <v>83</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.4" hidden="1">
       <c r="A48" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.4">
       <c r="A49" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.4">
       <c r="A50" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>5</v>
@@ -2993,22 +2983,22 @@
         <v>6</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.4">
       <c r="A51" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>5</v>
@@ -3017,22 +3007,22 @@
         <v>6</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.4">
       <c r="A52" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>5</v>
@@ -3041,22 +3031,22 @@
         <v>6</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G52" s="9"/>
+        <v>159</v>
+      </c>
+      <c r="G52" s="12"/>
       <c r="H52" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.4">
       <c r="A53" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>5</v>
@@ -3065,24 +3055,20 @@
         <v>6</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.4">
       <c r="A54" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>5</v>
@@ -3091,22 +3077,22 @@
         <v>6</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.4">
       <c r="A55" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>5</v>
@@ -3115,46 +3101,42 @@
         <v>6</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>164</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.4" hidden="1">
       <c r="A56" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>166</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F56" s="12"/>
       <c r="G56" s="9"/>
       <c r="H56" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.4" hidden="1">
       <c r="A57" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>5</v>
@@ -3163,22 +3145,22 @@
         <v>104</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.4" hidden="1">
       <c r="A58" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>5</v>
@@ -3187,94 +3169,90 @@
         <v>104</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.4" hidden="1">
       <c r="A59" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.4" hidden="1">
       <c r="A60" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>177</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.4" hidden="1">
       <c r="A61" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.4" hidden="1">
       <c r="A62" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>5</v>
@@ -3283,186 +3261,182 @@
         <v>104</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G62" s="9"/>
-      <c r="H62" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H62" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.4" hidden="1">
       <c r="A63" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
+        <v>185</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.4">
       <c r="A64" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>184</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.4" hidden="1">
+      <c r="A65" s="9">
+        <v>67</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
-        <v>64</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A66" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A67" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>192</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A69" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A70" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>5</v>
@@ -3471,22 +3445,22 @@
         <v>46</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="9">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>5</v>
@@ -3495,235 +3469,161 @@
         <v>83</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A73" s="9">
-        <v>72</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F73" s="9" t="s">
+      <c r="D73" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>227</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A74" s="9">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F74" s="9"/>
+      <c r="D74" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A75" s="9">
+        <v>75</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G75" s="9"/>
+      <c r="H75" s="8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9">
-        <v>74</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.75" hidden="1" customHeight="1" thickTop="1">
       <c r="A76" s="9">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>230</v>
-      </c>
+      <c r="B76" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F76" s="11"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="9">
         <v>75</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="B77" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F77" s="10"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="9">
-        <v>75</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9">
-        <v>75</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9">
-        <v>75</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D2:G80">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="D66:G77 D54:G55 D52:F52 G53 D53:E53 G65 D65:E65 D57:G64 G56 D56:E56 D2:G51">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3741,7 +3641,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
@@ -3752,850 +3652,850 @@
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>194</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>196</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>197</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>198</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>199</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>201</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>202</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>203</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>204</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>276</v>
-      </c>
-      <c r="B17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>280</v>
-      </c>
-      <c r="B18" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" t="s">
         <v>293</v>
       </c>
-      <c r="D21" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>294</v>
-      </c>
-      <c r="B22" t="s">
-        <v>388</v>
-      </c>
-      <c r="C22" t="s">
-        <v>389</v>
-      </c>
-      <c r="D22" t="s">
-        <v>390</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C23" t="s">
-        <v>392</v>
-      </c>
-      <c r="D23" t="s">
-        <v>390</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>297</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>298</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>299</v>
       </c>
-      <c r="D24" t="s">
-        <v>296</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>300</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>301</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>302</v>
       </c>
-      <c r="D25" t="s">
-        <v>296</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>303</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>304</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>305</v>
       </c>
-      <c r="D26" t="s">
-        <v>296</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
         <v>306</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>307</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>308</v>
       </c>
-      <c r="D27" t="s">
-        <v>296</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>293</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
         <v>309</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>310</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>311</v>
       </c>
-      <c r="D28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
         <v>312</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>313</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>314</v>
       </c>
-      <c r="D29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
         <v>315</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>316</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>317</v>
       </c>
-      <c r="D30" t="s">
-        <v>296</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
+        <v>293</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>318</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>319</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>320</v>
       </c>
-      <c r="D31" t="s">
-        <v>296</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
         <v>321</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>322</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>323</v>
       </c>
-      <c r="D32" t="s">
-        <v>296</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>324</v>
-      </c>
-      <c r="B33" t="s">
-        <v>325</v>
-      </c>
-      <c r="C33" t="s">
-        <v>326</v>
-      </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4607,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
